--- a/documentos_marco/propuesta_indicadores.xlsx
+++ b/documentos_marco/propuesta_indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipesn/Documents/R/rechazo-aeropuertos/documentos_marco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479133ED-E12D-E649-A742-C0BF16606E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ED5CCA-D828-E148-B867-9944E28E0C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="520" windowWidth="28040" windowHeight="15880" xr2:uid="{7E47AD74-2022-0C46-A472-EAA592475D21}"/>
+    <workbookView xWindow="-100" yWindow="560" windowWidth="28040" windowHeight="15880" xr2:uid="{7E47AD74-2022-0C46-A472-EAA592475D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -178,19 +178,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -208,19 +202,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,45 +246,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -595,511 +623,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D726D52-773C-C54C-BF09-C0EE2EF1AA24}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" ht="49" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" ht="37" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="37" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8" ht="37" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" ht="37" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" ht="49" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8" ht="49" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" ht="49" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8" ht="49" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:8" ht="97" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
